--- a/diaries/diary-ZeyuHuang.xlsx
+++ b/diaries/diary-ZeyuHuang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developers\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C5E3DA-88AD-4BE7-A9F0-46A06F45B5BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A32D39-C9FF-49A3-AC05-DBB5DF211904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -219,13 +219,46 @@
     <t>Decide which two features to study. Finish the homework. Write the report about the implementation of these two features and the relationship between them and other relevant parts of the project.</t>
   </si>
   <si>
-    <t>Learnt about UML diagram and behavior model.</t>
-  </si>
-  <si>
     <t>We chose Index and Search for our project, since these two are the most essential parts of a searching engine. We illuminated the implementation of the features in our reports, and some diagrams and charts were drawn in order to help understanding.</t>
   </si>
   <si>
     <t>We met some difficulties when looking for relevant parts in the project because in fact there was not so many parts relevant.</t>
+  </si>
+  <si>
+    <t>Learnt about UML diagram and behavioral model.</t>
+  </si>
+  <si>
+    <t>12.00-5.00pm</t>
+  </si>
+  <si>
+    <t>9.00-12.00pm</t>
+  </si>
+  <si>
+    <t>Review for the Mid Term</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>5.00-8.00pm</t>
+  </si>
+  <si>
+    <t>Attending the class and learn something about the mid term</t>
+  </si>
+  <si>
+    <t>Took notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reviewed the question being asked during the class and took notes</t>
+  </si>
+  <si>
+    <t>Learned the importance of good commentations. Leaned how to read codes with the helpful template. Took some notes. Made the plan to review for the mid term</t>
+  </si>
+  <si>
+    <t>Worrying about the midterm.</t>
+  </si>
+  <si>
+    <t>Still worrying.</t>
   </si>
 </sst>
 </file>
@@ -718,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,7 +1063,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>55</v>
@@ -1076,41 +1109,77 @@
         <v>61</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>43867</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>43871</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="8">
+        <v>43872</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>

--- a/diaries/diary-ZeyuHuang.xlsx
+++ b/diaries/diary-ZeyuHuang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developers\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A32D39-C9FF-49A3-AC05-DBB5DF211904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E71624-5078-4071-9764-33AB91338E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -259,6 +259,48 @@
   </si>
   <si>
     <t>Still worrying.</t>
+  </si>
+  <si>
+    <t>Take the exam</t>
+  </si>
+  <si>
+    <t>5.30-10.30 pm</t>
+  </si>
+  <si>
+    <t>We found some interesting things when doing homework. For instance, the developer who committed the most code is their CEO!! It was really fun when you were digging a company's history and culture.</t>
+  </si>
+  <si>
+    <t>Drawing the "big picture" for our own project and looking for issues that we think we can handle.</t>
+  </si>
+  <si>
+    <t>At least I answered all of the questions, including the bonus one. After the exam, we learned about the big picture of a system, including the stakeholders, key developers, and functionality.</t>
+  </si>
+  <si>
+    <t>Worrying but not so bad. Reviewing is helpful. Maybe I can start earlier before the final.</t>
+  </si>
+  <si>
+    <t>4.00-7.00 pm</t>
+  </si>
+  <si>
+    <t>Doing the assignment of this week.</t>
+  </si>
+  <si>
+    <t>Listening carefully because the final is closed.</t>
+  </si>
+  <si>
+    <t>I learned how to document the architecture of a system in different aspects. And I learned about the social context of a system, different states of a project, some standards or guidelines for a project, and the process of contributing to a project including bug reporting and code changing.</t>
+  </si>
+  <si>
+    <t>The normalized standards and the processes are somehow cumbersome, but it helps to regulate the behaviors of different developers, which makes it easy for us to cooperate with each other.</t>
+  </si>
+  <si>
+    <t>The big picture was not so difficult for us because it was an open-source project. We can find every commit and every contributor on the GitHub. There was also plenty of information on their official websites about their suppliers and partners. However, the issues are really hard to understand.</t>
+  </si>
+  <si>
+    <t>Deppening my understanding about the knowledge learned of the class and our project.</t>
+  </si>
+  <si>
+    <t>Finishing the Social Context, and Interesting issues and pull requests part of the assignment. Having a discussion on the architecture part with partners.</t>
   </si>
 </sst>
 </file>
@@ -751,18 +793,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="12" customWidth="1"/>
-    <col min="2" max="7" width="34.6640625" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="34.7109375" style="12" customWidth="1"/>
+    <col min="2" max="7" width="34.7109375" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -773,7 +815,7 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -782,7 +824,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -791,7 +833,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -804,7 +846,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -817,7 +859,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -830,7 +872,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -839,7 +881,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -848,7 +890,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -871,7 +913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43839</v>
       </c>
@@ -894,7 +936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43841</v>
       </c>
@@ -915,7 +957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43846</v>
       </c>
@@ -938,7 +980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43848</v>
       </c>
@@ -961,7 +1003,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43850</v>
       </c>
@@ -982,7 +1024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43853</v>
       </c>
@@ -1003,7 +1045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43855</v>
       </c>
@@ -1026,7 +1068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43859</v>
       </c>
@@ -1049,7 +1091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43860</v>
       </c>
@@ -1072,7 +1114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43861</v>
       </c>
@@ -1095,7 +1137,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43866</v>
       </c>
@@ -1118,7 +1160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43867</v>
       </c>
@@ -1139,7 +1181,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43871</v>
       </c>
@@ -1160,7 +1202,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43872</v>
       </c>
@@ -1181,43 +1223,91 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+    <row r="24" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>43874</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>43880</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>43881</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>43886</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1226,7 +1316,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1235,7 +1325,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1244,7 +1334,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1253,7 +1343,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1262,7 +1352,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1271,7 +1361,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1280,7 +1370,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1289,7 +1379,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1298,7 +1388,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1307,7 +1397,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1316,7 +1406,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1325,7 +1415,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1334,7 +1424,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1343,7 +1433,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1352,7 +1442,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1361,7 +1451,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1370,7 +1460,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1379,7 +1469,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1388,7 +1478,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1397,7 +1487,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1406,7 +1496,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1415,7 +1505,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1424,7 +1514,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1433,7 +1523,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1442,7 +1532,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1451,7 +1541,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -1460,7 +1550,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -1469,7 +1559,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1478,7 +1568,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -1487,7 +1577,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1496,7 +1586,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -1505,7 +1595,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1514,7 +1604,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -1523,7 +1613,7 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -1532,7 +1622,7 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -1541,7 +1631,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -1550,7 +1640,7 @@
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -1559,7 +1649,7 @@
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -1568,7 +1658,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -1577,7 +1667,7 @@
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -1586,7 +1676,7 @@
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -1595,7 +1685,7 @@
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -1604,7 +1694,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -1613,7 +1703,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -1622,7 +1712,7 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -1631,7 +1721,7 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -1640,7 +1730,7 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -1649,7 +1739,7 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -1658,7 +1748,7 @@
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -1667,7 +1757,7 @@
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -1676,7 +1766,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -1685,7 +1775,7 @@
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -1694,7 +1784,7 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -1703,7 +1793,7 @@
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -1712,7 +1802,7 @@
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -1721,7 +1811,7 @@
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -1730,7 +1820,7 @@
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -1739,7 +1829,7 @@
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -1748,7 +1838,7 @@
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -1757,7 +1847,7 @@
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -1766,7 +1856,7 @@
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -1775,7 +1865,7 @@
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -1784,7 +1874,7 @@
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -1793,7 +1883,7 @@
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -1802,7 +1892,7 @@
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -1811,7 +1901,7 @@
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -1820,7 +1910,7 @@
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -1829,7 +1919,7 @@
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -1838,7 +1928,7 @@
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -1847,7 +1937,7 @@
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -1856,7 +1946,7 @@
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -1865,7 +1955,7 @@
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -1874,7 +1964,7 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -1883,7 +1973,7 @@
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -1892,7 +1982,7 @@
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -1901,7 +1991,7 @@
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -1910,7 +2000,7 @@
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -1919,7 +2009,7 @@
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -1928,7 +2018,7 @@
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -1937,7 +2027,7 @@
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -1946,7 +2036,7 @@
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -1955,7 +2045,7 @@
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -1964,7 +2054,7 @@
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -1973,7 +2063,7 @@
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -1982,7 +2072,7 @@
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -1991,7 +2081,7 @@
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -2000,7 +2090,7 @@
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -2009,7 +2099,7 @@
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -2018,7 +2108,7 @@
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -2027,7 +2117,7 @@
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -2036,7 +2126,7 @@
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -2045,7 +2135,7 @@
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
     </row>
-    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -2054,7 +2144,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -2063,7 +2153,7 @@
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
     </row>
-    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -2072,7 +2162,7 @@
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -2081,7 +2171,7 @@
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
     </row>
-    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -2090,7 +2180,7 @@
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>

--- a/diaries/diary-ZeyuHuang.xlsx
+++ b/diaries/diary-ZeyuHuang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developers\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E71624-5078-4071-9764-33AB91338E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB37B9C2-5872-4760-B40B-E9238FF9309A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Shikun Xiong, Yue Zhang, Tianlun Li</t>
   </si>
   <si>
-    <t>7.00 pm</t>
-  </si>
-  <si>
     <t>Make sure the environment is set up and be familiar with Intellij IDEA. Make sure java apps can be successfully built and run on my machine.</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>It is so good that there wasn't much trouble.</t>
   </si>
   <si>
-    <t>10.00 pm</t>
-  </si>
-  <si>
     <t>Different java applications are built and run successfully. All the goals are achieved.</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>Good</t>
   </si>
   <si>
-    <t>Good plugin.</t>
-  </si>
-  <si>
     <t>2.00-5.00 pm</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>Not so good. It was a tough task because it was a really huge and complex system. But our goal was achieved, which made it not so bad.</t>
   </si>
   <si>
-    <t>Get to know how to understand a totally unfamiliar system.</t>
-  </si>
-  <si>
     <t>Do some modifications to my first homework according to the comments offered by the TA.</t>
   </si>
   <si>
@@ -189,9 +177,6 @@
     <t xml:space="preserve">Done. Leanr that I should not forgot to upload the image used in my markdown file next time. And learn how the pull request work.  </t>
   </si>
   <si>
-    <t>Tough work but finnaly done. And we think the uml diagram for the whole system is useless and unreadable:)</t>
-  </si>
-  <si>
     <t>7.00-9.00pm</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t>Developed some fundamental understanding about the project we choose.</t>
   </si>
   <si>
-    <t>What a big project.</t>
-  </si>
-  <si>
     <t>Not bad.</t>
   </si>
   <si>
@@ -222,9 +204,6 @@
     <t>We chose Index and Search for our project, since these two are the most essential parts of a searching engine. We illuminated the implementation of the features in our reports, and some diagrams and charts were drawn in order to help understanding.</t>
   </si>
   <si>
-    <t>We met some difficulties when looking for relevant parts in the project because in fact there was not so many parts relevant.</t>
-  </si>
-  <si>
     <t>Learnt about UML diagram and behavioral model.</t>
   </si>
   <si>
@@ -255,12 +234,6 @@
     <t>Learned the importance of good commentations. Leaned how to read codes with the helpful template. Took some notes. Made the plan to review for the mid term</t>
   </si>
   <si>
-    <t>Worrying about the midterm.</t>
-  </si>
-  <si>
-    <t>Still worrying.</t>
-  </si>
-  <si>
     <t>Take the exam</t>
   </si>
   <si>
@@ -282,9 +255,6 @@
     <t>4.00-7.00 pm</t>
   </si>
   <si>
-    <t>Doing the assignment of this week.</t>
-  </si>
-  <si>
     <t>Listening carefully because the final is closed.</t>
   </si>
   <si>
@@ -301,6 +271,114 @@
   </si>
   <si>
     <t>Finishing the Social Context, and Interesting issues and pull requests part of the assignment. Having a discussion on the architecture part with partners.</t>
+  </si>
+  <si>
+    <t>7.00-8.00pm</t>
+  </si>
+  <si>
+    <t>9.00-10.00 pm</t>
+  </si>
+  <si>
+    <t>7.00-8.00 pm</t>
+  </si>
+  <si>
+    <t>5.00-7.00pm</t>
+  </si>
+  <si>
+    <t>Refine and perfect the assignment 4.</t>
+  </si>
+  <si>
+    <t>Subsection may help reader go through the document. Specific data help understand the state of the project development.</t>
+  </si>
+  <si>
+    <t>I devided the social context part into subsections to make it more readable. Some more detailed information about state of the project development and tools being used in the system was added .</t>
+  </si>
+  <si>
+    <t>Attend the course</t>
+  </si>
+  <si>
+    <t>4.00-5.30pm</t>
+  </si>
+  <si>
+    <t>Start to work with the assignment of this week.</t>
+  </si>
+  <si>
+    <t>Learned more KEPs. Learned about design pattern, the definition, catalogue, and several sample patterns (factory, adapter, etc.) We also leanred to find design pattern in JPacMan4 to enhance our understanding.</t>
+  </si>
+  <si>
+    <t>Design pattern are helpful and widely used. Understanding design pattern can help us write more elegant code.</t>
+  </si>
+  <si>
+    <t>Work with the assignment of this week.</t>
+  </si>
+  <si>
+    <t>Two examples of desgin pattern were found in our project, the factory pattern and the builds pattern. Learned the usage of the pattern and the advantages of applying these two pattern.</t>
+  </si>
+  <si>
+    <t>Factory and Builder are two most widely used pattern, therefore they are also the easiest to found.</t>
+  </si>
+  <si>
+    <t>8.00-10.00pm</t>
+  </si>
+  <si>
+    <t>Decide which issue to choose for the assignment 6.</t>
+  </si>
+  <si>
+    <t>After a long time of digging into the issue lists, we came up with two acceptable issues and sent them to Kaj.</t>
+  </si>
+  <si>
+    <t>There're tones of issues of all kinds. We cannot understand most of them because of the lack of understanding of the project. It would be easier to find a suitable issue with deeper understanding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learned more KEPs. Learned about testing, from unit testing to the intergration testing. We also practiced with JPacman4 to understand how the test case can help us with reading code. </t>
+  </si>
+  <si>
+    <t>Reading the test cases of a project can help us obtain information about the implementation and logic of the methods and the classes.</t>
+  </si>
+  <si>
+    <t>Finish the assignment 6.</t>
+  </si>
+  <si>
+    <t>Learned more KEPs. Learned about miscellaneous apects, the history, visualization, refactoring, the attitude and the enduring principles.</t>
+  </si>
+  <si>
+    <t>Get to know how to understand a totally unfamiliar system. Reading a huge project is huge. Develope a excellent code reading skills is important for a developer.</t>
+  </si>
+  <si>
+    <t>The Simple Uml is really a Good plugin. Making the architecture visualized helps developers understand the code better.</t>
+  </si>
+  <si>
+    <t>Tough work but finally done. And we think the UML diagram for the whole system is useless and unreadable:) Diagram does help understand the architecture, but we do not need the diagram for the entire system, which is so complex and impossible to understand.</t>
+  </si>
+  <si>
+    <t>Developer may meet problems even when building the project. So a good documantation that tells the dependencies of the project and how to build it is really important and essential.</t>
+  </si>
+  <si>
+    <t>We met some difficulties when looking for relevant parts of the project. As in a big project, a part may seem relevant but also seem irrelevant to all the other parts. Developers need to dig deeper into the method and the dependencies to find the real relationship between components.</t>
+  </si>
+  <si>
+    <t>Happy. I choose the easiest part of the assignment before my teammates start to workt with it.</t>
+  </si>
+  <si>
+    <t>Thankful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The last course of the semenster. The course provided so many useful tips for developers. </t>
+  </si>
+  <si>
+    <t>Mid term is a good way to reflect what we have learned and what we have forgot so far. I think I should take more notes in the second half of the semester, which really help me with reviewing for the exam.</t>
+  </si>
+  <si>
+    <t>Mental simulation is really important when developing or testing. Developers can go through the process in their head to prevent missing logic or mistake that may cause incorrect behaviors.</t>
+  </si>
+  <si>
+    <t>The knowledge that I've practiced in the assignment is easier to remember than those without practicing. This story tells me that only reading the books or learning from the class can only help us make deep understanding with the knowledge. We need to write codes.</t>
+  </si>
+  <si>
+    <t>I wrote the test cases for our pull request, a deprecate of a method. And add some test cases for some exsisting class.</t>
+  </si>
+  <si>
+    <t>We need to understanding the whole structure and the logic of a class if we want to write tests. At the same time, we also develop our understanding when writing the test case because we have to know how to use the constructor and we have to consider which statement may behavior different from our expectations.</t>
   </si>
 </sst>
 </file>
@@ -793,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,17 +1019,17 @@
         <v>43841</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>16</v>
@@ -971,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>20</v>
@@ -985,22 +1063,22 @@
         <v>43848</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.25">
@@ -1008,20 +1086,20 @@
         <v>43850</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -1033,16 +1111,16 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -1050,45 +1128,45 @@
         <v>43855</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43859</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1099,128 +1177,128 @@
         <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43861</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43866</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43867</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43871</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43872</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
@@ -1232,16 +1310,16 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
@@ -1249,17 +1327,17 @@
         <v>43880</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>16</v>
@@ -1274,13 +1352,13 @@
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>16</v>
@@ -1291,84 +1369,168 @@
         <v>43886</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>43887</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>43888</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>43893</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>43895</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>43902</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>43903</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>43906</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
